--- a/documentation/MS4_Testing.xlsx
+++ b/documentation/MS4_Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jobroomfield/Desktop/TartanThom/Tartan Thom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD98413E-FD22-374E-A69D-EC4B4192E55B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB99782-9D42-D143-97C1-BA3D8F8FD0E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="33600" windowHeight="19220" xr2:uid="{FE313CD3-8A40-1448-A5DF-91EC0D360A9F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="156">
   <si>
     <t>Pass</t>
   </si>
@@ -625,6 +625,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -634,17 +640,51 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -977,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E48B459-AC57-764F-8C01-E5DD33D8F3AE}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -990,24 +1030,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1060,6 +1100,12 @@
       <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1070,6 +1116,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1086,6 +1138,12 @@
       <c r="D4" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="E4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1096,6 +1154,12 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1112,6 +1176,12 @@
       <c r="D5" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="E5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1122,6 +1192,12 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1138,6 +1214,12 @@
       <c r="D6" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="E6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G6" s="7" t="s">
         <v>0</v>
       </c>
@@ -1148,6 +1230,12 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1164,6 +1252,12 @@
       <c r="D7" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="E7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G7" s="7" t="s">
         <v>0</v>
       </c>
@@ -1174,6 +1268,12 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1190,8 +1290,12 @@
       <c r="D8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1204,8 +1308,12 @@
       <c r="J8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1220,8 +1328,12 @@
       <c r="D9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1234,8 +1346,12 @@
       <c r="J9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1250,8 +1366,12 @@
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G10" s="7" t="s">
         <v>0</v>
       </c>
@@ -1264,8 +1384,12 @@
       <c r="J10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1280,8 +1404,12 @@
       <c r="D11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G11" s="7" t="s">
         <v>0</v>
       </c>
@@ -1294,8 +1422,12 @@
       <c r="J11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1310,8 +1442,12 @@
       <c r="D12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G12" s="7" t="s">
         <v>0</v>
       </c>
@@ -1324,8 +1460,12 @@
       <c r="J12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="K12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1340,8 +1480,12 @@
       <c r="D13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G13" s="7" t="s">
         <v>0</v>
       </c>
@@ -1354,8 +1498,12 @@
       <c r="J13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1370,8 +1518,12 @@
       <c r="D14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G14" s="7" t="s">
         <v>0</v>
       </c>
@@ -1384,8 +1536,12 @@
       <c r="J14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1400,8 +1556,12 @@
       <c r="D15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G15" s="7" t="s">
         <v>0</v>
       </c>
@@ -1414,8 +1574,12 @@
       <c r="J15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1430,8 +1594,12 @@
       <c r="D16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G16" s="7" t="s">
         <v>0</v>
       </c>
@@ -1444,8 +1612,12 @@
       <c r="J16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="K16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:12" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1460,8 +1632,12 @@
       <c r="D17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G17" s="7" t="s">
         <v>0</v>
       </c>
@@ -1474,8 +1650,12 @@
       <c r="J17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:12" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1490,8 +1670,12 @@
       <c r="D18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G18" s="7" t="s">
         <v>0</v>
       </c>
@@ -1504,8 +1688,12 @@
       <c r="J18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="K18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:12" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1520,8 +1708,12 @@
       <c r="D19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G19" s="7" t="s">
         <v>0</v>
       </c>
@@ -1534,8 +1726,12 @@
       <c r="J19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:12" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1548,24 +1744,32 @@
         <v>145</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G20" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:12" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1578,9 +1782,13 @@
       <c r="D21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="15" t="s">
+      <c r="E21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="7" t="s">
@@ -1592,8 +1800,12 @@
       <c r="J21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="K21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1608,7 +1820,13 @@
       <c r="D22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="E22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -1618,6 +1836,12 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1632,9 +1856,15 @@
         <v>74</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="7" t="s">
@@ -1644,6 +1874,12 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1660,7 +1896,13 @@
       <c r="D24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="E24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
@@ -1670,6 +1912,12 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1686,7 +1934,13 @@
       <c r="D25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="E25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="7" t="s">
@@ -1696,6 +1950,12 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1712,7 +1972,13 @@
       <c r="D26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="E26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -1722,6 +1988,12 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1738,7 +2010,13 @@
       <c r="D27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="E27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -1748,6 +2026,12 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1764,7 +2048,13 @@
       <c r="D28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="E28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="7" t="s">
@@ -1774,6 +2064,12 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1790,7 +2086,13 @@
       <c r="D29" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="E29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H29" s="7" t="s">
@@ -1800,6 +2102,12 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1816,7 +2124,13 @@
       <c r="D30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="E30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H30" s="7" t="s">
@@ -1826,6 +2140,12 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1842,7 +2162,13 @@
       <c r="D31" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="E31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H31" s="7" t="s">
@@ -1852,6 +2178,12 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1868,7 +2200,13 @@
       <c r="D32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="E32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H32" s="7" t="s">
@@ -1880,8 +2218,14 @@
       <c r="J32" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+      <c r="K32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>87</v>
       </c>
@@ -1892,10 +2236,16 @@
         <v>139</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>0</v>
@@ -1904,10 +2254,16 @@
         <v>0</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>87</v>
       </c>
@@ -1920,7 +2276,13 @@
       <c r="D34" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="E34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H34" s="7" t="s">
@@ -1932,8 +2294,14 @@
       <c r="J34" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="K34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>98</v>
       </c>
@@ -1946,7 +2314,13 @@
       <c r="D35" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="E35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H35" s="7" t="s">
@@ -1958,8 +2332,14 @@
       <c r="J35" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>98</v>
       </c>
@@ -1972,7 +2352,13 @@
       <c r="D36" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="E36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H36" s="7" t="s">
@@ -1984,8 +2370,14 @@
       <c r="J36" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>98</v>
       </c>
@@ -1998,7 +2390,13 @@
       <c r="D37" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="E37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H37" s="7" t="s">
@@ -2010,8 +2408,14 @@
       <c r="J37" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>98</v>
       </c>
@@ -2024,7 +2428,13 @@
       <c r="D38" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="E38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H38" s="7" t="s">
@@ -2036,8 +2446,14 @@
       <c r="J38" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>98</v>
       </c>
@@ -2048,10 +2464,16 @@
         <v>106</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>0</v>
@@ -2060,10 +2482,16 @@
         <v>0</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>107</v>
       </c>
@@ -2076,7 +2504,13 @@
       <c r="D40" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="E40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H40" s="7" t="s">
@@ -2088,21 +2522,33 @@
       <c r="J40" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="E41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
@@ -2114,8 +2560,14 @@
       <c r="J41" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -2128,7 +2580,13 @@
       <c r="D42" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="E42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H42" s="7" t="s">
@@ -2140,8 +2598,14 @@
       <c r="J42" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="K42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>117</v>
       </c>
@@ -2154,7 +2618,13 @@
       <c r="D43" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="E43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H43" s="7" t="s">
@@ -2166,8 +2636,14 @@
       <c r="J43" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>120</v>
       </c>
@@ -2180,7 +2656,13 @@
       <c r="D44" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="E44" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H44" s="7" t="s">
@@ -2192,8 +2674,14 @@
       <c r="J44" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K44" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>120</v>
       </c>
@@ -2206,7 +2694,13 @@
       <c r="D45" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="E45" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H45" s="7" t="s">
@@ -2218,21 +2712,33 @@
       <c r="J45" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K45" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="11" t="s">
         <v>132</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="E46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H46" s="7" t="s">
@@ -2244,8 +2750,14 @@
       <c r="J46" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>121</v>
       </c>
@@ -2258,7 +2770,13 @@
       <c r="D47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="E47" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H47" s="7" t="s">
@@ -2270,21 +2788,33 @@
       <c r="J47" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K47" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="11" t="s">
         <v>148</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="E48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H48" s="7" t="s">
@@ -2296,21 +2826,33 @@
       <c r="J48" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="11" t="s">
         <v>148</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="E49" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H49" s="7" t="s">
@@ -2322,21 +2864,33 @@
       <c r="J49" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K49" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="11" t="s">
         <v>148</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G50" s="15" t="s">
+      <c r="E50" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H50" s="7" t="s">
@@ -2348,21 +2902,33 @@
       <c r="J50" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K50" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="11" t="s">
         <v>148</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="E51" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H51" s="7" t="s">
@@ -2374,8 +2940,14 @@
       <c r="J51" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K51" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>134</v>
       </c>
@@ -2388,7 +2960,13 @@
       <c r="D52" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="E52" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="7" t="s">
@@ -2400,8 +2978,14 @@
       <c r="J52" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K52" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>134</v>
       </c>
@@ -2414,7 +2998,13 @@
       <c r="D53" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="E53" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H53" s="7" t="s">
@@ -2426,8 +3016,14 @@
       <c r="J53" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K53" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>138</v>
       </c>
@@ -2440,7 +3036,13 @@
       <c r="D54" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="E54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="7" t="s">
@@ -2452,8 +3054,14 @@
       <c r="J54" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>58</v>
       </c>
@@ -2466,7 +3074,13 @@
       <c r="D55" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="E55" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H55" s="7" t="s">
@@ -2478,8 +3092,14 @@
       <c r="J55" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K55" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
@@ -2492,7 +3112,13 @@
       <c r="D56" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G56" s="15" t="s">
+      <c r="E56" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H56" s="7" t="s">
@@ -2504,8 +3130,14 @@
       <c r="J56" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K56" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
@@ -2518,7 +3150,13 @@
       <c r="D57" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G57" s="15" t="s">
+      <c r="E57" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H57" s="7" t="s">
@@ -2530,8 +3168,14 @@
       <c r="J57" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K57" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>61</v>
       </c>
@@ -2544,7 +3188,13 @@
       <c r="D58" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="E58" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H58" s="7" t="s">
@@ -2556,8 +3206,14 @@
       <c r="J58" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="K58" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
@@ -2568,10 +3224,16 @@
         <v>152</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>0</v>
@@ -2582,8 +3244,14 @@
       <c r="J59" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K59" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
@@ -2596,7 +3264,13 @@
       <c r="D60" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G60" s="15" t="s">
+      <c r="E60" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H60" s="7" t="s">
@@ -2608,8 +3282,14 @@
       <c r="J60" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K60" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L60" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
@@ -2622,7 +3302,13 @@
       <c r="D61" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G61" s="15" t="s">
+      <c r="E61" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H61" s="7" t="s">
@@ -2634,8 +3320,14 @@
       <c r="J61" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K61" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
@@ -2648,7 +3340,13 @@
       <c r="D62" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G62" s="15" t="s">
+      <c r="E62" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H62" s="7" t="s">
@@ -2660,8 +3358,14 @@
       <c r="J62" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K62" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
@@ -2674,7 +3378,13 @@
       <c r="D63" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G63" s="15" t="s">
+      <c r="E63" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H63" s="7" t="s">
@@ -2684,6 +3394,12 @@
         <v>0</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L63" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2693,15 +3409,32 @@
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:L20 D33:L33 D21:F32 H21:L32 D39:L39 D34:F38 H34:L38 D59:L59 D40:F58 H40:L58 D64:L1048576 D60:F63 H60:L63">
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+  <conditionalFormatting sqref="D64:L1048576 D1:L2 H21:J32 H34:J38 H40:J58 H60:J63 L37 D3:J3 G39:J39 G59:J59 L33 G33:J33 L3:L20 G4:J20 D4:F63">
+    <cfRule type="cellIs" dxfId="5" priority="20" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="21" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K32 K34:K63">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -2709,7 +3442,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:F1048576 H1:L1048576 G1:G20 G33 G39 G59 G64:G1048576</xm:sqref>
+          <xm:sqref>K38:K1048576 G64:G1048576 H1:I32 H34:I1048576 G39 G59 L64:L1048576 J1:J1048576 K37:L37 F33:I33 K1:K36 F34:F1048576 F1:F32 L33 L1:L20 G1:G20 D1:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
